--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Dinesen.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Dinesen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D4BF9F-E4F8-43A5-98F3-FD437CB8FA9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739492EB-7749-4963-8708-9979DEFDB261}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3495" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$28</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2392,7 +2392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="354">
   <si>
     <t>SearchID</t>
   </si>
@@ -3390,9 +3390,6 @@
     <t>Delphinus delphis</t>
   </si>
   <si>
-    <t>Dephinus delphis</t>
-  </si>
-  <si>
     <t>600% decline in dolphin, 100-300% decline in biomass and catch of sardines and anchovy</t>
   </si>
   <si>
@@ -3402,21 +3399,9 @@
     <t>direct and indirect impact</t>
   </si>
   <si>
-    <t>CPUE</t>
-  </si>
-  <si>
     <t>Chelonia mydas _ Caretta caretta _ Dermochelys coriacea</t>
   </si>
   <si>
-    <t>Proportional turtle by-catch per gear type respectively per country and sea region</t>
-  </si>
-  <si>
-    <t>By-catch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fish </t>
-  </si>
-  <si>
     <t>Key effect was temperature, no effect of fishing effort except perhaps in the area west of Scotland</t>
   </si>
   <si>
@@ -3426,15 +3411,6 @@
     <t>Test of effect of climate, effects of fishery not tested and only suggested as explanation</t>
   </si>
   <si>
-    <t>Caretta caretta</t>
-  </si>
-  <si>
-    <t>By-catch linked to fishing effort</t>
-  </si>
-  <si>
-    <t>turtles were each in 50% of sets, individual set catch rates above 0 were beween 1-4 individuals</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fishing effort in NS targetting plaice, sole, cod, Norway pout, saithe </t>
   </si>
   <si>
@@ -3456,13 +3432,28 @@
     <t>Sardina pilchardus _ Engraulis encrasicolus</t>
   </si>
   <si>
-    <t>Fish length _ weight-length relation</t>
-  </si>
-  <si>
     <t>Biomass</t>
   </si>
   <si>
     <t>Productivity</t>
+  </si>
+  <si>
+    <t>Bycatch (captures per year)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportional turtle by-catch per gear type respectively per country and sea region. Small vessels using set net, demersal longline or pelagic longline represent most of theMediterranean fleet and likely cause more incidental or intentional deaths than largevessels typically using bottom trawl or pelagic longline. When interactions, mortality,intentional  killing,  size  (a  proxy  for  reproductive  value)  and  turtle  populations  areconsidered,  results  indicate  that  Mediterranean  green  (Chelonia  mydas)  and  logger-head  turtles  (Caretta  caretta)  are  more  affected  (i)  by  fishing  gears  such  as  bottomtrawlers,  demersal  longlines  and  set  nets,  (ii)  by  small-scale  fisheries,  and  (iii)  byfishing  in  the  eastern  basin. </t>
+  </si>
+  <si>
+    <t>Bycatch associated mortality</t>
+  </si>
+  <si>
+    <t>Species richness</t>
+  </si>
+  <si>
+    <t>Provides only bycatch and mortality estimate of the fishery, and not the impact on the population or mortality of turtles itself.</t>
+  </si>
+  <si>
+    <t>Large Fish Index</t>
   </si>
 </sst>
 </file>
@@ -3942,12 +3933,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX27"/>
+  <dimension ref="A1:AX28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="AW29" sqref="AW29"/>
+      <selection pane="bottomLeft" activeCell="AQ29" sqref="AQ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4296,7 +4287,7 @@
         <v>176</v>
       </c>
       <c r="AU3" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="AV3" t="s">
         <v>199</v>
@@ -4418,7 +4409,7 @@
         <v>175</v>
       </c>
       <c r="AU4" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="AV4" t="s">
         <v>199</v>
@@ -4540,7 +4531,7 @@
         <v>176</v>
       </c>
       <c r="AU5" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="AV5" t="s">
         <v>204</v>
@@ -4662,7 +4653,7 @@
         <v>175</v>
       </c>
       <c r="AU6" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="AV6" t="s">
         <v>204</v>
@@ -4759,8 +4750,8 @@
       <c r="AE7" t="s">
         <v>329</v>
       </c>
-      <c r="AF7" s="12" t="s">
-        <v>306</v>
+      <c r="AF7" s="12">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG7" t="s">
         <v>111</v>
@@ -4777,14 +4768,20 @@
       <c r="AL7" t="s">
         <v>317</v>
       </c>
+      <c r="AM7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>160</v>
+      </c>
       <c r="AO7" t="s">
         <v>322</v>
       </c>
       <c r="AQ7" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="AU7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AV7" t="s">
         <v>200</v>
@@ -4881,14 +4878,14 @@
       <c r="AE8" t="s">
         <v>329</v>
       </c>
-      <c r="AF8" s="12" t="s">
-        <v>306</v>
+      <c r="AF8" s="12">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG8" t="s">
         <v>111</v>
       </c>
       <c r="AH8" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI8" t="s">
         <v>144</v>
@@ -4899,14 +4896,20 @@
       <c r="AL8" t="s">
         <v>317</v>
       </c>
+      <c r="AM8" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>161</v>
+      </c>
       <c r="AO8" t="s">
         <v>322</v>
       </c>
       <c r="AQ8" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="AU8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AV8" t="s">
         <v>200</v>
@@ -4920,40 +4923,40 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B9" t="s">
         <v>244</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D9" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E9">
         <v>2011</v>
       </c>
       <c r="F9" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="G9">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9">
-        <v>2490</v>
+        <v>2106</v>
       </c>
       <c r="J9">
-        <v>2498</v>
+        <v>2113</v>
       </c>
       <c r="K9" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="M9" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="N9" t="s">
         <v>243</v>
@@ -4961,11 +4964,14 @@
       <c r="O9" t="s">
         <v>242</v>
       </c>
+      <c r="P9" t="s">
+        <v>295</v>
+      </c>
       <c r="Q9" t="s">
         <v>21</v>
       </c>
       <c r="S9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T9" t="s">
         <v>46</v>
@@ -4974,79 +4980,73 @@
         <v>58</v>
       </c>
       <c r="V9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W9" t="s">
         <v>55</v>
       </c>
       <c r="X9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y9" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="Z9" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="AA9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC9">
-        <v>2</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>307</v>
+        <v>3</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF9" s="12">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG9" t="s">
         <v>111</v>
       </c>
       <c r="AH9" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="AI9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s">
         <v>150</v>
       </c>
       <c r="AL9" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="AM9" t="s">
         <v>232</v>
       </c>
       <c r="AN9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO9" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="AQ9" t="s">
         <v>164</v>
       </c>
-      <c r="AR9" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>181</v>
-      </c>
       <c r="AU9" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="AV9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW9" t="s">
         <v>208</v>
       </c>
       <c r="AX9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.3">
@@ -5117,7 +5117,7 @@
         <v>330</v>
       </c>
       <c r="Z10" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="AA10">
         <v>2</v>
@@ -5156,19 +5156,19 @@
         <v>162</v>
       </c>
       <c r="AO10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AQ10" t="s">
         <v>164</v>
       </c>
       <c r="AR10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AU10" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AV10" t="s">
         <v>199</v>
@@ -5177,7 +5177,7 @@
         <v>208</v>
       </c>
       <c r="AX10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.3">
@@ -5248,7 +5248,7 @@
         <v>330</v>
       </c>
       <c r="Z11" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -5287,19 +5287,19 @@
         <v>162</v>
       </c>
       <c r="AO11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AQ11" t="s">
         <v>164</v>
       </c>
       <c r="AR11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AS11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AU11" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AV11" t="s">
         <v>199</v>
@@ -5308,7 +5308,7 @@
         <v>208</v>
       </c>
       <c r="AX11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.3">
@@ -5379,7 +5379,7 @@
         <v>330</v>
       </c>
       <c r="Z12" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -5409,13 +5409,13 @@
         <v>150</v>
       </c>
       <c r="AL12" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="AM12" t="s">
         <v>232</v>
       </c>
       <c r="AN12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO12" t="s">
         <v>334</v>
@@ -5427,10 +5427,10 @@
         <v>169</v>
       </c>
       <c r="AS12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AU12" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AV12" t="s">
         <v>199</v>
@@ -5439,7 +5439,7 @@
         <v>208</v>
       </c>
       <c r="AX12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.3">
@@ -5510,7 +5510,7 @@
         <v>330</v>
       </c>
       <c r="Z13" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -5528,19 +5528,16 @@
         <v>111</v>
       </c>
       <c r="AH13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AI13" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AK13" t="s">
         <v>150</v>
       </c>
       <c r="AL13" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AM13" t="s">
         <v>232</v>
@@ -5549,19 +5546,19 @@
         <v>160</v>
       </c>
       <c r="AO13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AQ13" t="s">
         <v>164</v>
       </c>
       <c r="AR13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS13" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AU13" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AV13" t="s">
         <v>199</v>
@@ -5570,7 +5567,7 @@
         <v>208</v>
       </c>
       <c r="AX13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.3">
@@ -5641,7 +5638,7 @@
         <v>330</v>
       </c>
       <c r="Z14" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -5659,19 +5656,16 @@
         <v>111</v>
       </c>
       <c r="AH14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AI14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AK14" t="s">
         <v>150</v>
       </c>
       <c r="AL14" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AM14" t="s">
         <v>232</v>
@@ -5680,19 +5674,19 @@
         <v>160</v>
       </c>
       <c r="AO14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AQ14" t="s">
         <v>164</v>
       </c>
       <c r="AR14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AS14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AU14" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AV14" t="s">
         <v>199</v>
@@ -5701,45 +5695,45 @@
         <v>208</v>
       </c>
       <c r="AX14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B15" t="s">
         <v>244</v>
       </c>
       <c r="C15" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E15">
         <v>2011</v>
       </c>
       <c r="F15" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>299</v>
+        <v>2490</v>
       </c>
       <c r="J15">
-        <v>316</v>
+        <v>2498</v>
       </c>
       <c r="K15" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M15" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="N15" t="s">
         <v>243</v>
@@ -5766,10 +5760,13 @@
         <v>55</v>
       </c>
       <c r="X15" t="s">
-        <v>69</v>
+        <v>216</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>330</v>
       </c>
       <c r="Z15" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -5780,44 +5777,44 @@
       <c r="AC15">
         <v>2</v>
       </c>
-      <c r="AF15">
-        <v>4.2</v>
+      <c r="AF15" t="s">
+        <v>307</v>
       </c>
       <c r="AG15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AI15" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="AK15" t="s">
         <v>150</v>
       </c>
       <c r="AL15" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="AM15" t="s">
         <v>232</v>
       </c>
       <c r="AN15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO15" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AQ15" t="s">
         <v>164</v>
       </c>
       <c r="AR15" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="AS15" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AU15" t="s">
-        <v>132</v>
+        <v>346</v>
       </c>
       <c r="AV15" t="s">
         <v>199</v>
@@ -5826,7 +5823,7 @@
         <v>208</v>
       </c>
       <c r="AX15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.3">
@@ -5894,7 +5891,7 @@
         <v>69</v>
       </c>
       <c r="Z16" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -5921,7 +5918,7 @@
         <v>150</v>
       </c>
       <c r="AL16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AM16" t="s">
         <v>232</v>
@@ -5930,28 +5927,28 @@
         <v>162</v>
       </c>
       <c r="AO16" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
       </c>
       <c r="AR16" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="AS16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AU16" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="AV16" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="AW16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX16" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.3">
@@ -6019,7 +6016,7 @@
         <v>69</v>
       </c>
       <c r="Z17" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -6046,7 +6043,7 @@
         <v>150</v>
       </c>
       <c r="AL17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AM17" t="s">
         <v>232</v>
@@ -6055,60 +6052,66 @@
         <v>162</v>
       </c>
       <c r="AO17" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
       </c>
       <c r="AR17" t="s">
-        <v>239</v>
+        <v>170</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>190</v>
       </c>
       <c r="AU17" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="AV17" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="AW17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX17" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B18" t="s">
         <v>244</v>
       </c>
       <c r="C18" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E18">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F18" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G18">
-        <v>414</v>
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>299</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>316</v>
       </c>
       <c r="K18" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M18" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="N18" t="s">
         <v>243</v>
@@ -6116,14 +6119,11 @@
       <c r="O18" t="s">
         <v>242</v>
       </c>
-      <c r="P18" t="s">
-        <v>245</v>
-      </c>
       <c r="Q18" t="s">
         <v>21</v>
       </c>
       <c r="S18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T18" t="s">
         <v>46</v>
@@ -6138,49 +6138,46 @@
         <v>55</v>
       </c>
       <c r="X18" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z18" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="AA18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
         <v>2</v>
       </c>
-      <c r="AC18">
-        <v>3</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>342</v>
-      </c>
       <c r="AF18">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="AG18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AI18" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AK18" t="s">
         <v>150</v>
       </c>
       <c r="AL18" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="AM18" t="s">
         <v>232</v>
       </c>
       <c r="AN18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO18" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
@@ -6188,20 +6185,17 @@
       <c r="AR18" t="s">
         <v>239</v>
       </c>
-      <c r="AS18" t="s">
-        <v>175</v>
-      </c>
       <c r="AU18" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AV18" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="AW18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX18" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.3">
@@ -6251,7 +6245,7 @@
         <v>21</v>
       </c>
       <c r="S19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="T19" t="s">
         <v>46</v>
@@ -6269,7 +6263,7 @@
         <v>215</v>
       </c>
       <c r="Z19" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="AA19">
         <v>3</v>
@@ -6281,7 +6275,7 @@
         <v>3</v>
       </c>
       <c r="AE19" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AF19">
         <v>4.4000000000000004</v>
@@ -6308,7 +6302,7 @@
         <v>160</v>
       </c>
       <c r="AO19" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="AQ19" t="s">
         <v>164</v>
@@ -6320,7 +6314,7 @@
         <v>175</v>
       </c>
       <c r="AU19" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="AV19" t="s">
         <v>205</v>
@@ -6329,7 +6323,7 @@
         <v>210</v>
       </c>
       <c r="AX19" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.3">
@@ -6379,7 +6373,7 @@
         <v>21</v>
       </c>
       <c r="S20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T20" t="s">
         <v>46</v>
@@ -6397,7 +6391,7 @@
         <v>215</v>
       </c>
       <c r="Z20" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="AA20">
         <v>3</v>
@@ -6409,7 +6403,7 @@
         <v>3</v>
       </c>
       <c r="AE20" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AF20">
         <v>4.4000000000000004</v>
@@ -6436,7 +6430,7 @@
         <v>160</v>
       </c>
       <c r="AO20" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
@@ -6448,7 +6442,7 @@
         <v>175</v>
       </c>
       <c r="AU20" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="AV20" t="s">
         <v>205</v>
@@ -6457,45 +6451,42 @@
         <v>210</v>
       </c>
       <c r="AX20" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B21" t="s">
         <v>244</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D21" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E21">
         <v>2010</v>
       </c>
       <c r="F21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
+        <v>414</v>
       </c>
       <c r="I21">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>264</v>
+        <v>9</v>
       </c>
       <c r="K21" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M21" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="N21" t="s">
         <v>243</v>
@@ -6504,54 +6495,129 @@
         <v>242</v>
       </c>
       <c r="P21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q21" t="s">
         <v>21</v>
       </c>
-      <c r="R21" t="s">
-        <v>84</v>
+      <c r="S21" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" t="s">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s">
+        <v>58</v>
+      </c>
+      <c r="V21" t="s">
+        <v>46</v>
+      </c>
+      <c r="W21" t="s">
+        <v>55</v>
+      </c>
+      <c r="X21" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA21">
+        <v>3</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+      <c r="AC21">
+        <v>3</v>
       </c>
       <c r="AE21" t="s">
-        <v>343</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>306</v>
+        <v>337</v>
+      </c>
+      <c r="AF21">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>341</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>351</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B22" t="s">
         <v>244</v>
       </c>
       <c r="C22" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D22" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E22">
         <v>2010</v>
       </c>
       <c r="F22" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G22">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>25</v>
+        <v>261</v>
       </c>
       <c r="J22">
-        <v>30</v>
+        <v>264</v>
+      </c>
+      <c r="K22" t="s">
+        <v>272</v>
       </c>
       <c r="M22" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="N22" t="s">
         <v>243</v>
@@ -6559,124 +6625,55 @@
       <c r="O22" t="s">
         <v>242</v>
       </c>
+      <c r="P22" t="s">
+        <v>247</v>
+      </c>
       <c r="Q22" t="s">
         <v>21</v>
       </c>
-      <c r="S22" t="s">
-        <v>31</v>
-      </c>
-      <c r="T22" t="s">
-        <v>46</v>
-      </c>
-      <c r="U22" t="s">
-        <v>56</v>
-      </c>
-      <c r="V22" t="s">
-        <v>42</v>
-      </c>
-      <c r="W22" t="s">
-        <v>48</v>
-      </c>
-      <c r="X22" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA22">
-        <v>2</v>
-      </c>
-      <c r="AB22">
-        <v>2</v>
-      </c>
-      <c r="AC22">
-        <v>2</v>
-      </c>
-      <c r="AF22">
-        <v>4.2</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>344</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>345</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>344</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>346</v>
+      <c r="R22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B23" t="s">
         <v>244</v>
       </c>
       <c r="C23" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D23" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E23">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F23" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G23">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>472</v>
+        <v>25</v>
       </c>
       <c r="J23">
-        <v>478</v>
-      </c>
-      <c r="K23" t="s">
-        <v>261</v>
+        <v>30</v>
       </c>
       <c r="M23" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="N23" t="s">
         <v>243</v>
@@ -6687,86 +6684,14 @@
       <c r="Q23" t="s">
         <v>21</v>
       </c>
-      <c r="S23" t="s">
-        <v>31</v>
-      </c>
-      <c r="T23" t="s">
-        <v>46</v>
-      </c>
-      <c r="V23" t="s">
-        <v>42</v>
-      </c>
-      <c r="W23" t="s">
-        <v>214</v>
-      </c>
-      <c r="X23" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA23">
-        <v>2</v>
-      </c>
-      <c r="AB23">
-        <v>2</v>
-      </c>
-      <c r="AC23">
-        <v>2</v>
+      <c r="R23" t="s">
+        <v>84</v>
       </c>
       <c r="AE23" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="AF23">
-        <v>4.3</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>317</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>319</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>320</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>316</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>318</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.3">
@@ -6861,7 +6786,7 @@
         <v>140</v>
       </c>
       <c r="AJ24" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="AK24" t="s">
         <v>134</v>
@@ -6899,40 +6824,40 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s">
         <v>244</v>
       </c>
       <c r="C25" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D25" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E25">
         <v>2009</v>
       </c>
       <c r="F25" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G25">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>392</v>
+        <v>472</v>
       </c>
       <c r="J25">
-        <v>401</v>
+        <v>478</v>
       </c>
       <c r="K25" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="N25" t="s">
         <v>243</v>
@@ -6944,28 +6869,25 @@
         <v>21</v>
       </c>
       <c r="S25" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T25" t="s">
         <v>46</v>
       </c>
-      <c r="U25" t="s">
-        <v>58</v>
-      </c>
       <c r="V25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W25" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="X25" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="Y25" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Z25" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -6974,55 +6896,58 @@
         <v>2</v>
       </c>
       <c r="AC25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="s">
-        <v>311</v>
-      </c>
-      <c r="AF25" s="12">
-        <v>4.2</v>
+        <v>321</v>
+      </c>
+      <c r="AF25">
+        <v>4.3</v>
       </c>
       <c r="AG25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH25" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AI25" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AJ25" t="s">
-        <v>155</v>
+        <v>113</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>134</v>
       </c>
       <c r="AL25" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AM25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AO25" t="s">
-        <v>312</v>
+        <v>319</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>320</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
       </c>
       <c r="AR25" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="AU25" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AV25" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW25" t="s">
         <v>208</v>
       </c>
       <c r="AX25" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.3">
@@ -7108,7 +7033,7 @@
         <v>311</v>
       </c>
       <c r="AF26" s="12">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AG26" t="s">
         <v>110</v>
@@ -7132,7 +7057,7 @@
         <v>312</v>
       </c>
       <c r="AQ26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AR26" t="s">
         <v>170</v>
@@ -7155,40 +7080,40 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s">
         <v>244</v>
       </c>
       <c r="C27" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D27" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E27">
         <v>2009</v>
       </c>
       <c r="F27" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G27">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>41</v>
+        <v>392</v>
       </c>
       <c r="J27">
-        <v>49</v>
+        <v>401</v>
       </c>
       <c r="K27" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N27" t="s">
         <v>243</v>
@@ -7199,10 +7124,138 @@
       <c r="Q27" t="s">
         <v>21</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
+        <v>26</v>
+      </c>
+      <c r="T27" t="s">
+        <v>46</v>
+      </c>
+      <c r="U27" t="s">
+        <v>58</v>
+      </c>
+      <c r="V27" t="s">
+        <v>46</v>
+      </c>
+      <c r="W27" t="s">
+        <v>58</v>
+      </c>
+      <c r="X27" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA27">
+        <v>2</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+      <c r="AC27">
+        <v>3</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF27" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>231</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>313</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28">
+        <v>2009</v>
+      </c>
+      <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28">
+        <v>82</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>41</v>
+      </c>
+      <c r="J28">
+        <v>49</v>
+      </c>
+      <c r="K28" t="s">
+        <v>249</v>
+      </c>
+      <c r="M28" t="s">
+        <v>248</v>
+      </c>
+      <c r="N28" t="s">
+        <v>243</v>
+      </c>
+      <c r="O28" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" t="s">
         <v>84</v>
       </c>
-      <c r="AF27">
+      <c r="AF28">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -7217,7 +7270,7 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P21:P1048576 Q3:Q20" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P22:P1048576 Q3:Q21" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
@@ -7238,25 +7291,25 @@
           <x14:formula1>
             <xm:f>Validation!$AA$3:$AA$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AA32:AA1048576 AA3:AA30</xm:sqref>
+          <xm:sqref>AA33:AA1048576 AA3:AA31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Validation!$AB$3:$AB$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AB32:AB1048576 AB3:AB30</xm:sqref>
+          <xm:sqref>AB33:AB1048576 AB3:AB31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>Validation!$AC$3:$AC$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AC32:AC1048576 AC3:AC30</xm:sqref>
+          <xm:sqref>AC33:AC1048576 AC3:AC31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>'C:\Users\kjova\Downloads\[DataExtractionForm_WP4_Dinesen.xlsx]Validation'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>AF3:AF27</xm:sqref>
+          <xm:sqref>AF28 AF3:AF6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
@@ -7340,7 +7393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY38"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -9348,12 +9401,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -9467,6 +9514,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -9476,21 +9529,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9504,4 +9542,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Dinesen.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Dinesen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739492EB-7749-4963-8708-9979DEFDB261}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2280A903-DAC0-4C4B-8BBE-75D81ED3D1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -3935,31 +3935,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="AQ29" sqref="AQ29"/>
+      <selection pane="bottomLeft" activeCell="AW27" sqref="AW27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="19" max="19" width="18.21875" customWidth="1"/>
-    <col min="24" max="25" width="32.77734375" customWidth="1"/>
-    <col min="31" max="31" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="17.77734375" customWidth="1"/>
-    <col min="36" max="36" width="18.77734375" customWidth="1"/>
-    <col min="37" max="37" width="19.21875" customWidth="1"/>
-    <col min="38" max="38" width="17.77734375" customWidth="1"/>
-    <col min="39" max="39" width="14.21875" customWidth="1"/>
-    <col min="40" max="41" width="15.77734375" customWidth="1"/>
-    <col min="42" max="42" width="15.44140625" customWidth="1"/>
-    <col min="46" max="46" width="15.21875" customWidth="1"/>
-    <col min="47" max="47" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" customWidth="1"/>
+    <col min="24" max="25" width="32.81640625" customWidth="1"/>
+    <col min="31" max="31" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="17.81640625" customWidth="1"/>
+    <col min="36" max="36" width="18.81640625" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" customWidth="1"/>
+    <col min="38" max="38" width="17.81640625" customWidth="1"/>
+    <col min="39" max="39" width="14.1796875" customWidth="1"/>
+    <col min="40" max="41" width="15.81640625" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" customWidth="1"/>
+    <col min="47" max="47" width="18.81640625" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -4025,7 +4025,7 @@
       <c r="AW1" s="14"/>
       <c r="AX1" s="14"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>305</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>305</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>305</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>305</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>300</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>300</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>300</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>294</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>294</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>294</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>294</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>294</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>294</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>288</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>288</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>288</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>282</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>282</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>282</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>276</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>270</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>265</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>265</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>259</v>
       </c>
@@ -7072,13 +7072,13 @@
         <v>238</v>
       </c>
       <c r="AW26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX26" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>259</v>
       </c>
@@ -7200,13 +7200,13 @@
         <v>238</v>
       </c>
       <c r="AW27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX27" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>253</v>
       </c>
@@ -7397,17 +7397,17 @@
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.21875" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.77734375" customWidth="1"/>
-    <col min="33" max="33" width="26.21875" customWidth="1"/>
+    <col min="32" max="32" width="14.81640625" customWidth="1"/>
+    <col min="33" max="33" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -7473,7 +7473,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -8175,22 +8175,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -8304,12 +8304,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -8441,10 +8441,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -8472,38 +8472,38 @@
       <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.77734375" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" customWidth="1"/>
-    <col min="20" max="20" width="19.21875" customWidth="1"/>
-    <col min="21" max="21" width="17.77734375" customWidth="1"/>
-    <col min="22" max="22" width="18.77734375" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.81640625" customWidth="1"/>
+    <col min="20" max="20" width="19.1796875" customWidth="1"/>
+    <col min="21" max="21" width="17.81640625" customWidth="1"/>
+    <col min="22" max="22" width="18.81640625" customWidth="1"/>
+    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" customWidth="1"/>
-    <col min="30" max="30" width="15.21875" customWidth="1"/>
-    <col min="31" max="31" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.77734375" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.1796875" customWidth="1"/>
+    <col min="31" max="31" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.81640625" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
@@ -8550,7 +8550,7 @@
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -9352,12 +9352,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -9382,9 +9382,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9401,6 +9401,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -9514,12 +9520,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -9529,6 +9529,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9542,19 +9557,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Dinesen.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Dinesen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded_SP issues Nov22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2280A903-DAC0-4C4B-8BBE-75D81ED3D1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{2280A903-DAC0-4C4B-8BBE-75D81ED3D1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1DFE284-BEC5-45D4-90D3-D1735E4FA70D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$43</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2392,7 +2392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="367">
   <si>
     <t>SearchID</t>
   </si>
@@ -3390,15 +3390,6 @@
     <t>Delphinus delphis</t>
   </si>
   <si>
-    <t>600% decline in dolphin, 100-300% decline in biomass and catch of sardines and anchovy</t>
-  </si>
-  <si>
-    <t>indirect trophic impact</t>
-  </si>
-  <si>
-    <t>direct and indirect impact</t>
-  </si>
-  <si>
     <t>Chelonia mydas _ Caretta caretta _ Dermochelys coriacea</t>
   </si>
   <si>
@@ -3454,6 +3445,56 @@
   </si>
   <si>
     <t>Large Fish Index</t>
+  </si>
+  <si>
+    <t>Fishing effort</t>
+  </si>
+  <si>
+    <t>Ecosystem indices showed clear evidences of decline trough time of common dolphin, top predators, fish community but more generally of the marine biodiversity with increase in fishing effort. In contrast, total invertebrates biomass increased significantly, following a trend similar to that observed in fishing effort.</t>
+  </si>
+  <si>
+    <t>Top predators</t>
+  </si>
+  <si>
+    <t>All species with trophic level of 3.5 or higher</t>
+  </si>
+  <si>
+    <t>Biomass of top predators</t>
+  </si>
+  <si>
+    <t>Kempton’s index of biodiversity expressed as biomass species diversity of organisms with trophic levels 3.5 or higher</t>
+  </si>
+  <si>
+    <t>closure of purse seine fishery</t>
+  </si>
+  <si>
+    <t>Mixed Trophic Impact</t>
+  </si>
+  <si>
+    <t>Of all fisheries, purse seiners had the greatest negative impact on common dolphins, followed by trammel netters and beach seiners.</t>
+  </si>
+  <si>
+    <t>direct and indirect impact of fishing treating them as predators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sardines, in 1964, were impacted most negatively by common dolphins, followed by other pelagics, hake, purse seiners, and trammel netters. In 2007, common dolphin was almost absent from sardines MTI (MTI index2007: 0.0017) with
+purse seiners having the greatest negative impact. We observed a similar scenario for anchovy MTI with the exception that hake, and not purse seiners, had the highest impact in 2007. </t>
+  </si>
+  <si>
+    <t>Closure of the purse seine fishery (scenario 2) showed a positive effect on all the considered species although common dolphin biomass only increased slightly.</t>
+  </si>
+  <si>
+    <t>The closure of the purse seine, trawl and beach seine fishery (scenario 3) predicted to restore by 2030 sardine and anchovy stocks to levels comparable to those in the 1960s. Common dolphin population recovery was more pronounced in this latter scenario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closure of the purse seine, trawl and beach seine fishery </t>
+  </si>
+  <si>
+    <t>closure of all fisheries</t>
+  </si>
+  <si>
+    <t>Closing all the study area to fishing activities (scenario 4) would bring common dolphins by 2030 to biomass levels similar to those observed in 2004 (approximately 50 individuals) while sardines and anchovies would keep the same
+trajectories as delineated in the previous scenario.</t>
   </si>
 </sst>
 </file>
@@ -3592,7 +3633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3635,6 +3676,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3668,6 +3710,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3933,12 +3979,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX28"/>
+  <dimension ref="A1:AX43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="AW27" sqref="AW27"/>
+      <selection pane="bottomLeft" activeCell="AP17" sqref="AP17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4287,7 +4333,7 @@
         <v>176</v>
       </c>
       <c r="AU3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AV3" t="s">
         <v>199</v>
@@ -4409,7 +4455,7 @@
         <v>175</v>
       </c>
       <c r="AU4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AV4" t="s">
         <v>199</v>
@@ -4531,7 +4577,7 @@
         <v>176</v>
       </c>
       <c r="AU5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AV5" t="s">
         <v>204</v>
@@ -4653,7 +4699,7 @@
         <v>175</v>
       </c>
       <c r="AU6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AV6" t="s">
         <v>204</v>
@@ -4781,7 +4827,7 @@
         <v>164</v>
       </c>
       <c r="AU7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AV7" t="s">
         <v>200</v>
@@ -4909,7 +4955,7 @@
         <v>164</v>
       </c>
       <c r="AU8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AV8" t="s">
         <v>200</v>
@@ -5037,7 +5083,7 @@
         <v>164</v>
       </c>
       <c r="AU9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AV9" t="s">
         <v>200</v>
@@ -5117,7 +5163,7 @@
         <v>330</v>
       </c>
       <c r="Z10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AA10">
         <v>2</v>
@@ -5156,19 +5202,13 @@
         <v>162</v>
       </c>
       <c r="AO10" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="AQ10" t="s">
         <v>164</v>
       </c>
-      <c r="AR10" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>181</v>
-      </c>
       <c r="AU10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AV10" t="s">
         <v>199</v>
@@ -5177,7 +5217,7 @@
         <v>208</v>
       </c>
       <c r="AX10" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
@@ -5248,7 +5288,7 @@
         <v>330</v>
       </c>
       <c r="Z11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -5266,40 +5306,22 @@
         <v>111</v>
       </c>
       <c r="AH11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="AK11" t="s">
         <v>150</v>
       </c>
-      <c r="AL11" t="s">
-        <v>331</v>
-      </c>
       <c r="AM11" t="s">
         <v>232</v>
       </c>
-      <c r="AN11" t="s">
-        <v>162</v>
-      </c>
       <c r="AO11" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="AQ11" t="s">
         <v>164</v>
       </c>
-      <c r="AR11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>189</v>
-      </c>
       <c r="AU11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AV11" t="s">
         <v>199</v>
@@ -5308,7 +5330,7 @@
         <v>208</v>
       </c>
       <c r="AX11" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.35">
@@ -5379,7 +5401,7 @@
         <v>330</v>
       </c>
       <c r="Z12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -5397,40 +5419,25 @@
         <v>111</v>
       </c>
       <c r="AH12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="AK12" t="s">
         <v>150</v>
       </c>
       <c r="AL12" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="AM12" t="s">
         <v>232</v>
       </c>
-      <c r="AN12" t="s">
-        <v>162</v>
-      </c>
       <c r="AO12" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="AQ12" t="s">
         <v>164</v>
       </c>
-      <c r="AR12" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>185</v>
-      </c>
       <c r="AU12" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="AV12" t="s">
         <v>199</v>
@@ -5439,7 +5446,7 @@
         <v>208</v>
       </c>
       <c r="AX12" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
@@ -5510,7 +5517,7 @@
         <v>330</v>
       </c>
       <c r="Z13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -5528,46 +5535,34 @@
         <v>111</v>
       </c>
       <c r="AH13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="AK13" t="s">
         <v>150</v>
       </c>
       <c r="AL13" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="AM13" t="s">
         <v>232</v>
       </c>
-      <c r="AN13" t="s">
-        <v>160</v>
-      </c>
       <c r="AO13" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="AQ13" t="s">
         <v>164</v>
       </c>
-      <c r="AR13" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>181</v>
-      </c>
       <c r="AU13" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="AV13" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW13" t="s">
         <v>208</v>
       </c>
       <c r="AX13" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.35">
@@ -5638,7 +5633,7 @@
         <v>330</v>
       </c>
       <c r="Z14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -5656,46 +5651,31 @@
         <v>111</v>
       </c>
       <c r="AH14" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="AK14" t="s">
         <v>150</v>
       </c>
-      <c r="AL14" t="s">
-        <v>345</v>
-      </c>
       <c r="AM14" t="s">
         <v>232</v>
       </c>
-      <c r="AN14" t="s">
-        <v>160</v>
-      </c>
       <c r="AO14" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="AQ14" t="s">
         <v>164</v>
       </c>
-      <c r="AR14" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>189</v>
-      </c>
       <c r="AU14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AV14" t="s">
         <v>199</v>
       </c>
       <c r="AW14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX14" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.35">
@@ -5766,7 +5746,7 @@
         <v>330</v>
       </c>
       <c r="Z15" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -5784,25 +5764,28 @@
         <v>111</v>
       </c>
       <c r="AH15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AI15" t="s">
-        <v>147</v>
+        <v>129</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>155</v>
       </c>
       <c r="AK15" t="s">
         <v>150</v>
       </c>
       <c r="AL15" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="AM15" t="s">
         <v>232</v>
       </c>
       <c r="AN15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO15" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="AQ15" t="s">
         <v>164</v>
@@ -5811,10 +5794,10 @@
         <v>169</v>
       </c>
       <c r="AS15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AU15" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="AV15" t="s">
         <v>199</v>
@@ -5823,45 +5806,45 @@
         <v>208</v>
       </c>
       <c r="AX15" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
         <v>244</v>
       </c>
       <c r="C16" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D16" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E16">
         <v>2011</v>
       </c>
       <c r="F16" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>299</v>
+        <v>2490</v>
       </c>
       <c r="J16">
-        <v>316</v>
+        <v>2498</v>
       </c>
       <c r="K16" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M16" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="N16" t="s">
         <v>243</v>
@@ -5888,10 +5871,13 @@
         <v>55</v>
       </c>
       <c r="X16" t="s">
-        <v>69</v>
+        <v>216</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>330</v>
       </c>
       <c r="Z16" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -5902,23 +5888,26 @@
       <c r="AC16">
         <v>2</v>
       </c>
-      <c r="AF16">
-        <v>4.2</v>
+      <c r="AF16" t="s">
+        <v>307</v>
       </c>
       <c r="AG16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AI16" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>155</v>
       </c>
       <c r="AK16" t="s">
         <v>150</v>
       </c>
       <c r="AL16" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AM16" t="s">
         <v>232</v>
@@ -5927,66 +5916,66 @@
         <v>162</v>
       </c>
       <c r="AO16" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
       </c>
       <c r="AR16" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="AS16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AU16" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AV16" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX16" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B17" t="s">
         <v>244</v>
       </c>
       <c r="C17" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D17" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E17">
         <v>2011</v>
       </c>
       <c r="F17" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G17">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I17">
-        <v>299</v>
+        <v>2490</v>
       </c>
       <c r="J17">
-        <v>316</v>
+        <v>2498</v>
       </c>
       <c r="K17" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M17" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="N17" t="s">
         <v>243</v>
@@ -6013,10 +6002,13 @@
         <v>55</v>
       </c>
       <c r="X17" t="s">
-        <v>69</v>
+        <v>216</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>330</v>
       </c>
       <c r="Z17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -6027,23 +6019,26 @@
       <c r="AC17">
         <v>2</v>
       </c>
-      <c r="AF17">
-        <v>4.2</v>
+      <c r="AF17" t="s">
+        <v>307</v>
       </c>
       <c r="AG17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AI17" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>155</v>
       </c>
       <c r="AK17" t="s">
         <v>150</v>
       </c>
       <c r="AL17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AM17" t="s">
         <v>232</v>
@@ -6052,66 +6047,66 @@
         <v>162</v>
       </c>
       <c r="AO17" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
       </c>
       <c r="AR17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AU17" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AV17" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX17" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B18" t="s">
         <v>244</v>
       </c>
       <c r="C18" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D18" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E18">
         <v>2011</v>
       </c>
       <c r="F18" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I18">
-        <v>299</v>
+        <v>2490</v>
       </c>
       <c r="J18">
-        <v>316</v>
+        <v>2498</v>
       </c>
       <c r="K18" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="N18" t="s">
         <v>243</v>
@@ -6138,10 +6133,13 @@
         <v>55</v>
       </c>
       <c r="X18" t="s">
-        <v>69</v>
+        <v>216</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>330</v>
       </c>
       <c r="Z18" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -6152,85 +6150,91 @@
       <c r="AC18">
         <v>2</v>
       </c>
-      <c r="AF18">
-        <v>4.2</v>
+      <c r="AF18" t="s">
+        <v>307</v>
       </c>
       <c r="AG18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AI18" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="AK18" t="s">
         <v>150</v>
       </c>
       <c r="AL18" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AM18" t="s">
         <v>232</v>
       </c>
       <c r="AN18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO18" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
       </c>
       <c r="AR18" t="s">
-        <v>239</v>
+        <v>169</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>181</v>
       </c>
       <c r="AU18" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AV18" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW18" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>349</v>
+        <v>208</v>
+      </c>
+      <c r="AX18" s="20" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B19" t="s">
         <v>244</v>
       </c>
       <c r="C19" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="D19" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="E19">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F19" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="G19">
-        <v>414</v>
+        <v>144</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2490</v>
       </c>
       <c r="J19">
-        <v>9</v>
+        <v>2498</v>
       </c>
       <c r="K19" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M19" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="N19" t="s">
         <v>243</v>
@@ -6238,14 +6242,11 @@
       <c r="O19" t="s">
         <v>242</v>
       </c>
-      <c r="P19" t="s">
-        <v>245</v>
-      </c>
       <c r="Q19" t="s">
         <v>21</v>
       </c>
       <c r="S19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T19" t="s">
         <v>46</v>
@@ -6260,40 +6261,40 @@
         <v>55</v>
       </c>
       <c r="X19" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>330</v>
       </c>
       <c r="Z19" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AA19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
         <v>2</v>
       </c>
-      <c r="AC19">
-        <v>3</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>337</v>
-      </c>
-      <c r="AF19">
-        <v>4.4000000000000004</v>
+      <c r="AF19" t="s">
+        <v>307</v>
       </c>
       <c r="AG19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH19" t="s">
         <v>117</v>
       </c>
       <c r="AI19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AK19" t="s">
         <v>150</v>
       </c>
       <c r="AL19" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="AM19" t="s">
         <v>232</v>
@@ -6302,63 +6303,66 @@
         <v>160</v>
       </c>
       <c r="AO19" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="AQ19" t="s">
         <v>164</v>
       </c>
       <c r="AR19" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AS19" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AU19" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="AV19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW19" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>336</v>
+        <v>208</v>
+      </c>
+      <c r="AX19" s="20" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B20" t="s">
         <v>244</v>
       </c>
       <c r="C20" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="D20" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="E20">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F20" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="G20">
-        <v>414</v>
+        <v>144</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2490</v>
       </c>
       <c r="J20">
-        <v>9</v>
+        <v>2498</v>
       </c>
       <c r="K20" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M20" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="N20" t="s">
         <v>243</v>
@@ -6366,14 +6370,11 @@
       <c r="O20" t="s">
         <v>242</v>
       </c>
-      <c r="P20" t="s">
-        <v>245</v>
-      </c>
       <c r="Q20" t="s">
         <v>21</v>
       </c>
       <c r="S20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="T20" t="s">
         <v>46</v>
@@ -6388,105 +6389,111 @@
         <v>55</v>
       </c>
       <c r="X20" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>330</v>
       </c>
       <c r="Z20" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AA20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
         <v>2</v>
       </c>
-      <c r="AC20">
-        <v>3</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>337</v>
-      </c>
-      <c r="AF20">
-        <v>4.4000000000000004</v>
+      <c r="AF20" t="s">
+        <v>307</v>
       </c>
       <c r="AG20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AI20" t="s">
-        <v>144</v>
+        <v>129</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>155</v>
       </c>
       <c r="AK20" t="s">
         <v>150</v>
       </c>
       <c r="AL20" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="AM20" t="s">
         <v>232</v>
       </c>
       <c r="AN20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO20" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
       </c>
       <c r="AR20" t="s">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="AS20" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AU20" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AV20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX20" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B21" t="s">
         <v>244</v>
       </c>
       <c r="C21" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="D21" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="E21">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F21" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="G21">
-        <v>414</v>
+        <v>144</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2490</v>
       </c>
       <c r="J21">
-        <v>9</v>
+        <v>2498</v>
       </c>
       <c r="K21" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M21" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="N21" t="s">
         <v>243</v>
@@ -6494,14 +6501,11 @@
       <c r="O21" t="s">
         <v>242</v>
       </c>
-      <c r="P21" t="s">
-        <v>245</v>
-      </c>
       <c r="Q21" t="s">
         <v>21</v>
       </c>
       <c r="S21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T21" t="s">
         <v>46</v>
@@ -6516,40 +6520,40 @@
         <v>55</v>
       </c>
       <c r="X21" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>330</v>
       </c>
       <c r="Z21" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AA21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
         <v>2</v>
       </c>
-      <c r="AC21">
-        <v>3</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>337</v>
-      </c>
-      <c r="AF21">
-        <v>4.4000000000000004</v>
+      <c r="AF21" t="s">
+        <v>307</v>
       </c>
       <c r="AG21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH21" t="s">
         <v>117</v>
       </c>
       <c r="AI21" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AK21" t="s">
         <v>150</v>
       </c>
       <c r="AL21" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="AM21" t="s">
         <v>232</v>
@@ -6558,66 +6562,66 @@
         <v>160</v>
       </c>
       <c r="AO21" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AQ21" t="s">
         <v>164</v>
       </c>
       <c r="AR21" t="s">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="AS21" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AU21" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AV21" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX21" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s">
         <v>244</v>
       </c>
       <c r="C22" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="D22" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="E22">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F22" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I22">
-        <v>261</v>
+        <v>2490</v>
       </c>
       <c r="J22">
-        <v>264</v>
+        <v>2498</v>
       </c>
       <c r="K22" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="M22" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="N22" t="s">
         <v>243</v>
@@ -6625,55 +6629,130 @@
       <c r="O22" t="s">
         <v>242</v>
       </c>
-      <c r="P22" t="s">
-        <v>247</v>
-      </c>
       <c r="Q22" t="s">
         <v>21</v>
       </c>
-      <c r="R22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>338</v>
+      <c r="S22" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22" t="s">
+        <v>46</v>
+      </c>
+      <c r="U22" t="s">
+        <v>58</v>
+      </c>
+      <c r="V22" t="s">
+        <v>46</v>
+      </c>
+      <c r="W22" t="s">
+        <v>55</v>
+      </c>
+      <c r="X22" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>2</v>
       </c>
       <c r="AF22" t="s">
-        <v>306</v>
+        <v>307</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>331</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO22" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>343</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="B23" t="s">
         <v>244</v>
       </c>
       <c r="C23" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="D23" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="E23">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F23" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>25</v>
+        <v>2490</v>
       </c>
       <c r="J23">
-        <v>30</v>
+        <v>2498</v>
+      </c>
+      <c r="K23" t="s">
+        <v>290</v>
       </c>
       <c r="M23" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="N23" t="s">
         <v>243</v>
@@ -6684,52 +6763,124 @@
       <c r="Q23" t="s">
         <v>21</v>
       </c>
-      <c r="R23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>352</v>
-      </c>
-      <c r="AF23">
-        <v>4.2</v>
+      <c r="S23" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" t="s">
+        <v>46</v>
+      </c>
+      <c r="U23" t="s">
+        <v>58</v>
+      </c>
+      <c r="V23" t="s">
+        <v>46</v>
+      </c>
+      <c r="W23" t="s">
+        <v>55</v>
+      </c>
+      <c r="X23" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA23">
+        <v>2</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>2</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>331</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO23" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>343</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="B24" t="s">
         <v>244</v>
       </c>
       <c r="C24" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="D24" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="E24">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F24" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G24">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I24">
-        <v>472</v>
+        <v>2490</v>
       </c>
       <c r="J24">
-        <v>478</v>
+        <v>2498</v>
       </c>
       <c r="K24" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="M24" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="N24" t="s">
         <v>243</v>
@@ -6741,123 +6892,126 @@
         <v>21</v>
       </c>
       <c r="S24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T24" t="s">
         <v>46</v>
       </c>
+      <c r="U24" t="s">
+        <v>58</v>
+      </c>
       <c r="V24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W24" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="X24" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Y24" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="Z24" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="AA24">
         <v>2</v>
       </c>
       <c r="AB24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC24">
         <v>2</v>
       </c>
-      <c r="AE24" t="s">
-        <v>321</v>
-      </c>
-      <c r="AF24">
-        <v>4.3</v>
+      <c r="AF24" t="s">
+        <v>307</v>
       </c>
       <c r="AG24" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI24" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AJ24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AK24" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL24" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="AM24" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>319</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>320</v>
+        <v>232</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO24" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="AQ24" t="s">
         <v>164</v>
       </c>
       <c r="AR24" t="s">
-        <v>239</v>
+        <v>169</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>185</v>
       </c>
       <c r="AU24" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="AV24" t="s">
         <v>199</v>
       </c>
       <c r="AW24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX24" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="B25" t="s">
         <v>244</v>
       </c>
       <c r="C25" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="D25" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="E25">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F25" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G25">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I25">
-        <v>472</v>
+        <v>2490</v>
       </c>
       <c r="J25">
-        <v>478</v>
+        <v>2498</v>
       </c>
       <c r="K25" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="M25" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="N25" t="s">
         <v>243</v>
@@ -6869,123 +7023,120 @@
         <v>21</v>
       </c>
       <c r="S25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T25" t="s">
         <v>46</v>
       </c>
+      <c r="U25" t="s">
+        <v>58</v>
+      </c>
       <c r="V25" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W25" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="X25" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Y25" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="Z25" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="AA25">
         <v>2</v>
       </c>
       <c r="AB25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC25">
         <v>2</v>
       </c>
-      <c r="AE25" t="s">
-        <v>321</v>
-      </c>
-      <c r="AF25">
-        <v>4.3</v>
+      <c r="AF25" t="s">
+        <v>307</v>
       </c>
       <c r="AG25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI25" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AJ25" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="AK25" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL25" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="AM25" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>319</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>320</v>
+        <v>232</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO25" s="20" t="s">
+        <v>365</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
       </c>
-      <c r="AR25" t="s">
-        <v>239</v>
-      </c>
       <c r="AU25" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="AV25" t="s">
         <v>199</v>
       </c>
       <c r="AW25" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>318</v>
+        <v>207</v>
+      </c>
+      <c r="AX25" s="20" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="B26" t="s">
         <v>244</v>
       </c>
       <c r="C26" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="D26" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="E26">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I26">
-        <v>392</v>
+        <v>2490</v>
       </c>
       <c r="J26">
-        <v>401</v>
+        <v>2498</v>
       </c>
       <c r="K26" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="M26" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="N26" t="s">
         <v>243</v>
@@ -7009,111 +7160,111 @@
         <v>46</v>
       </c>
       <c r="W26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="X26" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="Y26" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="Z26" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="AA26">
         <v>2</v>
       </c>
       <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
         <v>2</v>
       </c>
-      <c r="AC26">
-        <v>3</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>311</v>
-      </c>
-      <c r="AF26" s="12">
-        <v>4.5</v>
+      <c r="AF26" t="s">
+        <v>307</v>
       </c>
       <c r="AG26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AI26" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>155</v>
+        <v>147</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>150</v>
       </c>
       <c r="AL26" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="AM26" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>160</v>
       </c>
       <c r="AO26" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
       </c>
       <c r="AR26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS26" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AU26" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="AV26" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW26" t="s">
         <v>207</v>
       </c>
       <c r="AX26" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="B27" t="s">
         <v>244</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="D27" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="E27">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="G27">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I27">
-        <v>392</v>
+        <v>2490</v>
       </c>
       <c r="J27">
-        <v>401</v>
+        <v>2498</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="M27" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="N27" t="s">
         <v>243</v>
@@ -7137,111 +7288,111 @@
         <v>46</v>
       </c>
       <c r="W27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="X27" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="Y27" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="Z27" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="AA27">
         <v>2</v>
       </c>
       <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
         <v>2</v>
       </c>
-      <c r="AC27">
-        <v>3</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>311</v>
-      </c>
-      <c r="AF27" s="12">
-        <v>4.5</v>
+      <c r="AF27" t="s">
+        <v>307</v>
       </c>
       <c r="AG27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AI27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>155</v>
+        <v>147</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>150</v>
       </c>
       <c r="AL27" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="AM27" t="s">
-        <v>231</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>312</v>
+        <v>232</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO27" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="AQ27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AR27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS27" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AU27" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="AV27" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW27" t="s">
         <v>207</v>
       </c>
       <c r="AX27" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s">
         <v>244</v>
       </c>
       <c r="C28" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="E28">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="G28">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I28">
-        <v>41</v>
+        <v>2490</v>
       </c>
       <c r="J28">
-        <v>49</v>
+        <v>2498</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="M28" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="N28" t="s">
         <v>243</v>
@@ -7252,10 +7403,1765 @@
       <c r="Q28" t="s">
         <v>21</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T28" t="s">
+        <v>46</v>
+      </c>
+      <c r="U28" t="s">
+        <v>58</v>
+      </c>
+      <c r="V28" t="s">
+        <v>46</v>
+      </c>
+      <c r="W28" t="s">
+        <v>55</v>
+      </c>
+      <c r="X28" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA28">
+        <v>2</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>2</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO28" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>343</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29" t="s">
+        <v>292</v>
+      </c>
+      <c r="E29">
+        <v>2011</v>
+      </c>
+      <c r="F29" t="s">
+        <v>291</v>
+      </c>
+      <c r="G29">
+        <v>144</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>2490</v>
+      </c>
+      <c r="J29">
+        <v>2498</v>
+      </c>
+      <c r="K29" t="s">
+        <v>290</v>
+      </c>
+      <c r="M29" t="s">
+        <v>289</v>
+      </c>
+      <c r="N29" t="s">
+        <v>243</v>
+      </c>
+      <c r="O29" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T29" t="s">
+        <v>46</v>
+      </c>
+      <c r="U29" t="s">
+        <v>58</v>
+      </c>
+      <c r="V29" t="s">
+        <v>46</v>
+      </c>
+      <c r="W29" t="s">
+        <v>55</v>
+      </c>
+      <c r="X29" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA29">
+        <v>2</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>2</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO29" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>185</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>343</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D30" t="s">
+        <v>292</v>
+      </c>
+      <c r="E30">
+        <v>2011</v>
+      </c>
+      <c r="F30" t="s">
+        <v>291</v>
+      </c>
+      <c r="G30">
+        <v>144</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>2490</v>
+      </c>
+      <c r="J30">
+        <v>2498</v>
+      </c>
+      <c r="K30" t="s">
+        <v>290</v>
+      </c>
+      <c r="M30" t="s">
+        <v>289</v>
+      </c>
+      <c r="N30" t="s">
+        <v>243</v>
+      </c>
+      <c r="O30" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" t="s">
+        <v>26</v>
+      </c>
+      <c r="T30" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" t="s">
+        <v>58</v>
+      </c>
+      <c r="V30" t="s">
+        <v>46</v>
+      </c>
+      <c r="W30" t="s">
+        <v>55</v>
+      </c>
+      <c r="X30" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO30" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>343</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX30" s="20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" t="s">
+        <v>286</v>
+      </c>
+      <c r="E31">
+        <v>2011</v>
+      </c>
+      <c r="F31" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>299</v>
+      </c>
+      <c r="J31">
+        <v>316</v>
+      </c>
+      <c r="K31" t="s">
+        <v>284</v>
+      </c>
+      <c r="M31" t="s">
+        <v>283</v>
+      </c>
+      <c r="N31" t="s">
+        <v>243</v>
+      </c>
+      <c r="O31" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" t="s">
+        <v>26</v>
+      </c>
+      <c r="T31" t="s">
+        <v>46</v>
+      </c>
+      <c r="U31" t="s">
+        <v>58</v>
+      </c>
+      <c r="V31" t="s">
+        <v>46</v>
+      </c>
+      <c r="W31" t="s">
+        <v>55</v>
+      </c>
+      <c r="X31" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA31">
+        <v>2</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31">
+        <v>2</v>
+      </c>
+      <c r="AF31">
+        <v>4.2</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>332</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>192</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>347</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" t="s">
+        <v>287</v>
+      </c>
+      <c r="D32" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32">
+        <v>2011</v>
+      </c>
+      <c r="F32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>299</v>
+      </c>
+      <c r="J32">
+        <v>316</v>
+      </c>
+      <c r="K32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="s">
+        <v>283</v>
+      </c>
+      <c r="N32" t="s">
+        <v>243</v>
+      </c>
+      <c r="O32" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>21</v>
+      </c>
+      <c r="S32" t="s">
+        <v>26</v>
+      </c>
+      <c r="T32" t="s">
+        <v>46</v>
+      </c>
+      <c r="U32" t="s">
+        <v>58</v>
+      </c>
+      <c r="V32" t="s">
+        <v>46</v>
+      </c>
+      <c r="W32" t="s">
+        <v>55</v>
+      </c>
+      <c r="X32" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA32">
+        <v>2</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>2</v>
+      </c>
+      <c r="AF32">
+        <v>4.2</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>332</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>190</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>347</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" t="s">
+        <v>287</v>
+      </c>
+      <c r="D33" t="s">
+        <v>286</v>
+      </c>
+      <c r="E33">
+        <v>2011</v>
+      </c>
+      <c r="F33" t="s">
+        <v>285</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>299</v>
+      </c>
+      <c r="J33">
+        <v>316</v>
+      </c>
+      <c r="K33" t="s">
+        <v>284</v>
+      </c>
+      <c r="M33" t="s">
+        <v>283</v>
+      </c>
+      <c r="N33" t="s">
+        <v>243</v>
+      </c>
+      <c r="O33" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S33" t="s">
+        <v>26</v>
+      </c>
+      <c r="T33" t="s">
+        <v>46</v>
+      </c>
+      <c r="U33" t="s">
+        <v>58</v>
+      </c>
+      <c r="V33" t="s">
+        <v>46</v>
+      </c>
+      <c r="W33" t="s">
+        <v>55</v>
+      </c>
+      <c r="X33" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA33">
+        <v>2</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <v>2</v>
+      </c>
+      <c r="AF33">
+        <v>4.2</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>332</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>347</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" t="s">
+        <v>244</v>
+      </c>
+      <c r="C34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D34" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34">
+        <v>2010</v>
+      </c>
+      <c r="F34" t="s">
+        <v>279</v>
+      </c>
+      <c r="G34">
+        <v>414</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>9</v>
+      </c>
+      <c r="K34" t="s">
+        <v>278</v>
+      </c>
+      <c r="M34" t="s">
+        <v>277</v>
+      </c>
+      <c r="N34" t="s">
+        <v>243</v>
+      </c>
+      <c r="O34" t="s">
+        <v>242</v>
+      </c>
+      <c r="P34" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>21</v>
+      </c>
+      <c r="S34" t="s">
+        <v>24</v>
+      </c>
+      <c r="T34" t="s">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s">
+        <v>58</v>
+      </c>
+      <c r="V34" t="s">
+        <v>46</v>
+      </c>
+      <c r="W34" t="s">
+        <v>55</v>
+      </c>
+      <c r="X34" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA34">
+        <v>3</v>
+      </c>
+      <c r="AB34">
+        <v>2</v>
+      </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>334</v>
+      </c>
+      <c r="AF34">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>336</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>348</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" t="s">
+        <v>281</v>
+      </c>
+      <c r="D35" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35">
+        <v>2010</v>
+      </c>
+      <c r="F35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G35">
+        <v>414</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>9</v>
+      </c>
+      <c r="K35" t="s">
+        <v>278</v>
+      </c>
+      <c r="M35" t="s">
+        <v>277</v>
+      </c>
+      <c r="N35" t="s">
+        <v>243</v>
+      </c>
+      <c r="O35" t="s">
+        <v>242</v>
+      </c>
+      <c r="P35" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" t="s">
+        <v>30</v>
+      </c>
+      <c r="T35" t="s">
+        <v>46</v>
+      </c>
+      <c r="U35" t="s">
+        <v>58</v>
+      </c>
+      <c r="V35" t="s">
+        <v>46</v>
+      </c>
+      <c r="W35" t="s">
+        <v>55</v>
+      </c>
+      <c r="X35" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA35">
+        <v>3</v>
+      </c>
+      <c r="AB35">
+        <v>2</v>
+      </c>
+      <c r="AC35">
+        <v>3</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>334</v>
+      </c>
+      <c r="AF35">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>337</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>348</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D36" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36">
+        <v>2010</v>
+      </c>
+      <c r="F36" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36">
+        <v>414</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>9</v>
+      </c>
+      <c r="K36" t="s">
+        <v>278</v>
+      </c>
+      <c r="M36" t="s">
+        <v>277</v>
+      </c>
+      <c r="N36" t="s">
+        <v>243</v>
+      </c>
+      <c r="O36" t="s">
+        <v>242</v>
+      </c>
+      <c r="P36" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" t="s">
+        <v>29</v>
+      </c>
+      <c r="T36" t="s">
+        <v>46</v>
+      </c>
+      <c r="U36" t="s">
+        <v>58</v>
+      </c>
+      <c r="V36" t="s">
+        <v>46</v>
+      </c>
+      <c r="W36" t="s">
+        <v>55</v>
+      </c>
+      <c r="X36" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <v>2</v>
+      </c>
+      <c r="AC36">
+        <v>3</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>334</v>
+      </c>
+      <c r="AF36">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>338</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>348</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37">
+        <v>2010</v>
+      </c>
+      <c r="F37" t="s">
+        <v>273</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>261</v>
+      </c>
+      <c r="J37">
+        <v>264</v>
+      </c>
+      <c r="K37" t="s">
+        <v>272</v>
+      </c>
+      <c r="M37" t="s">
+        <v>271</v>
+      </c>
+      <c r="N37" t="s">
+        <v>243</v>
+      </c>
+      <c r="O37" t="s">
+        <v>242</v>
+      </c>
+      <c r="P37" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>21</v>
+      </c>
+      <c r="R37" t="s">
         <v>84</v>
       </c>
-      <c r="AF28">
+      <c r="AE37" t="s">
+        <v>335</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" t="s">
+        <v>268</v>
+      </c>
+      <c r="E38">
+        <v>2010</v>
+      </c>
+      <c r="F38" t="s">
+        <v>267</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>25</v>
+      </c>
+      <c r="J38">
+        <v>30</v>
+      </c>
+      <c r="M38" t="s">
+        <v>266</v>
+      </c>
+      <c r="N38" t="s">
+        <v>243</v>
+      </c>
+      <c r="O38" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>21</v>
+      </c>
+      <c r="R38" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF38">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" t="s">
+        <v>264</v>
+      </c>
+      <c r="D39" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39">
+        <v>2009</v>
+      </c>
+      <c r="F39" t="s">
+        <v>262</v>
+      </c>
+      <c r="G39">
+        <v>33</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>472</v>
+      </c>
+      <c r="J39">
+        <v>478</v>
+      </c>
+      <c r="K39" t="s">
+        <v>261</v>
+      </c>
+      <c r="M39" t="s">
+        <v>260</v>
+      </c>
+      <c r="N39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O39" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" t="s">
+        <v>31</v>
+      </c>
+      <c r="T39" t="s">
+        <v>46</v>
+      </c>
+      <c r="V39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W39" t="s">
+        <v>214</v>
+      </c>
+      <c r="X39" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA39">
+        <v>2</v>
+      </c>
+      <c r="AB39">
+        <v>2</v>
+      </c>
+      <c r="AC39">
+        <v>2</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF39">
+        <v>4.3</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>319</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>320</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>316</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B40" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40">
+        <v>2009</v>
+      </c>
+      <c r="F40" t="s">
+        <v>262</v>
+      </c>
+      <c r="G40">
+        <v>33</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>472</v>
+      </c>
+      <c r="J40">
+        <v>478</v>
+      </c>
+      <c r="K40" t="s">
+        <v>261</v>
+      </c>
+      <c r="M40" t="s">
+        <v>260</v>
+      </c>
+      <c r="N40" t="s">
+        <v>243</v>
+      </c>
+      <c r="O40" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" t="s">
+        <v>46</v>
+      </c>
+      <c r="V40" t="s">
+        <v>42</v>
+      </c>
+      <c r="W40" t="s">
+        <v>214</v>
+      </c>
+      <c r="X40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA40">
+        <v>2</v>
+      </c>
+      <c r="AB40">
+        <v>2</v>
+      </c>
+      <c r="AC40">
+        <v>2</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF40">
+        <v>4.3</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>319</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>320</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>316</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" t="s">
+        <v>257</v>
+      </c>
+      <c r="E41">
+        <v>2009</v>
+      </c>
+      <c r="F41" t="s">
+        <v>256</v>
+      </c>
+      <c r="G41">
+        <v>25</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>392</v>
+      </c>
+      <c r="J41">
+        <v>401</v>
+      </c>
+      <c r="K41" t="s">
+        <v>255</v>
+      </c>
+      <c r="M41" t="s">
+        <v>254</v>
+      </c>
+      <c r="N41" t="s">
+        <v>243</v>
+      </c>
+      <c r="O41" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" t="s">
+        <v>26</v>
+      </c>
+      <c r="T41" t="s">
+        <v>46</v>
+      </c>
+      <c r="U41" t="s">
+        <v>58</v>
+      </c>
+      <c r="V41" t="s">
+        <v>46</v>
+      </c>
+      <c r="W41" t="s">
+        <v>58</v>
+      </c>
+      <c r="X41" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>2</v>
+      </c>
+      <c r="AC41">
+        <v>3</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF41" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>231</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>313</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B42" t="s">
+        <v>244</v>
+      </c>
+      <c r="C42" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" t="s">
+        <v>257</v>
+      </c>
+      <c r="E42">
+        <v>2009</v>
+      </c>
+      <c r="F42" t="s">
+        <v>256</v>
+      </c>
+      <c r="G42">
+        <v>25</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>392</v>
+      </c>
+      <c r="J42">
+        <v>401</v>
+      </c>
+      <c r="K42" t="s">
+        <v>255</v>
+      </c>
+      <c r="M42" t="s">
+        <v>254</v>
+      </c>
+      <c r="N42" t="s">
+        <v>243</v>
+      </c>
+      <c r="O42" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>21</v>
+      </c>
+      <c r="S42" t="s">
+        <v>26</v>
+      </c>
+      <c r="T42" t="s">
+        <v>46</v>
+      </c>
+      <c r="U42" t="s">
+        <v>58</v>
+      </c>
+      <c r="V42" t="s">
+        <v>46</v>
+      </c>
+      <c r="W42" t="s">
+        <v>58</v>
+      </c>
+      <c r="X42" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA42">
+        <v>2</v>
+      </c>
+      <c r="AB42">
+        <v>2</v>
+      </c>
+      <c r="AC42">
+        <v>3</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF42" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>231</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>313</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" t="s">
+        <v>251</v>
+      </c>
+      <c r="E43">
+        <v>2009</v>
+      </c>
+      <c r="F43" t="s">
+        <v>250</v>
+      </c>
+      <c r="G43">
+        <v>82</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>41</v>
+      </c>
+      <c r="J43">
+        <v>49</v>
+      </c>
+      <c r="K43" t="s">
+        <v>249</v>
+      </c>
+      <c r="M43" t="s">
+        <v>248</v>
+      </c>
+      <c r="N43" t="s">
+        <v>243</v>
+      </c>
+      <c r="O43" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF43">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -7270,14 +9176,14 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P22:P1048576 Q3:Q21" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P37:P1048576 Q3:Q36" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AI3:AJ1048576 AN3:AN1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN1048576 AI3:AJ1048576 AR3:AS1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7291,25 +9197,25 @@
           <x14:formula1>
             <xm:f>Validation!$AA$3:$AA$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AA33:AA1048576 AA3:AA31</xm:sqref>
+          <xm:sqref>AA48:AA1048576 AA3:AA46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Validation!$AB$3:$AB$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AB33:AB1048576 AB3:AB31</xm:sqref>
+          <xm:sqref>AB48:AB1048576 AB3:AB46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>Validation!$AC$3:$AC$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AC33:AC1048576 AC3:AC31</xm:sqref>
+          <xm:sqref>AC48:AC1048576 AC3:AC46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>'C:\Users\kjova\Downloads\[DataExtractionForm_WP4_Dinesen.xlsx]Validation'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>AF28 AF3:AF6</xm:sqref>
+          <xm:sqref>AF43 AF3:AF6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
@@ -9392,23 +11298,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -9520,31 +11411,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5119AE1-18E6-4AE7-B94D-A5692B077F3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -9557,4 +11440,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Dinesen.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Dinesen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded_SP issues Nov22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{2280A903-DAC0-4C4B-8BBE-75D81ED3D1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1DFE284-BEC5-45D4-90D3-D1735E4FA70D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC264080-14EB-436A-847C-94967F60878D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4650" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$44</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2392,7 +2392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="368">
   <si>
     <t>SearchID</t>
   </si>
@@ -3495,6 +3495,9 @@
   <si>
     <t>Closing all the study area to fishing activities (scenario 4) would bring common dolphins by 2030 to biomass levels similar to those observed in 2004 (approximately 50 individuals) while sardines and anchovies would keep the same
 trajectories as delineated in the previous scenario.</t>
+  </si>
+  <si>
+    <t>bycatch was unlikely to be the main cause of the decline</t>
   </si>
 </sst>
 </file>
@@ -3633,7 +3636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3647,13 +3650,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3676,7 +3677,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3700,7 +3700,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Validation"/>
@@ -3710,10 +3710,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3979,12 +3975,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX43"/>
+  <dimension ref="A1:AX44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="AP17" sqref="AP17"/>
+      <selection pane="bottomLeft" activeCell="AX11" sqref="AX11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4006,70 +4002,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="18" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="16" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="17" t="s">
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="19" t="s">
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="13" t="s">
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="14" t="s">
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4224,7 +4220,7 @@
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>305</v>
       </c>
       <c r="B3" t="s">
@@ -4346,7 +4342,7 @@
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>305</v>
       </c>
       <c r="B4" t="s">
@@ -4468,7 +4464,7 @@
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>305</v>
       </c>
       <c r="B5" t="s">
@@ -4590,7 +4586,7 @@
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>305</v>
       </c>
       <c r="B6" t="s">
@@ -4712,7 +4708,7 @@
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>300</v>
       </c>
       <c r="B7" t="s">
@@ -4796,7 +4792,7 @@
       <c r="AE7" t="s">
         <v>329</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AF7" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG7" t="s">
@@ -4840,7 +4836,7 @@
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>300</v>
       </c>
       <c r="B8" t="s">
@@ -4924,7 +4920,7 @@
       <c r="AE8" t="s">
         <v>329</v>
       </c>
-      <c r="AF8" s="12">
+      <c r="AF8" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG8" t="s">
@@ -4968,7 +4964,7 @@
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>300</v>
       </c>
       <c r="B9" t="s">
@@ -5052,7 +5048,7 @@
       <c r="AE9" t="s">
         <v>329</v>
       </c>
-      <c r="AF9" s="12">
+      <c r="AF9" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG9" t="s">
@@ -5096,7 +5092,7 @@
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" t="s">
         <v>294</v>
       </c>
       <c r="B10" t="s">
@@ -5214,14 +5210,14 @@
         <v>199</v>
       </c>
       <c r="AW10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX10" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" t="s">
         <v>294</v>
       </c>
       <c r="B11" t="s">
@@ -5306,14 +5302,26 @@
         <v>111</v>
       </c>
       <c r="AH11" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>155</v>
       </c>
       <c r="AK11" t="s">
         <v>150</v>
       </c>
+      <c r="AL11" t="s">
+        <v>331</v>
+      </c>
       <c r="AM11" t="s">
         <v>232</v>
       </c>
+      <c r="AN11" t="s">
+        <v>161</v>
+      </c>
       <c r="AO11" t="s">
         <v>351</v>
       </c>
@@ -5334,7 +5342,7 @@
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" t="s">
         <v>294</v>
       </c>
       <c r="B12" t="s">
@@ -5419,14 +5427,11 @@
         <v>111</v>
       </c>
       <c r="AH12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AK12" t="s">
         <v>150</v>
       </c>
-      <c r="AL12" t="s">
-        <v>353</v>
-      </c>
       <c r="AM12" t="s">
         <v>232</v>
       </c>
@@ -5437,7 +5442,7 @@
         <v>164</v>
       </c>
       <c r="AU12" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="AV12" t="s">
         <v>199</v>
@@ -5450,7 +5455,7 @@
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" t="s">
         <v>294</v>
       </c>
       <c r="B13" t="s">
@@ -5541,7 +5546,7 @@
         <v>150</v>
       </c>
       <c r="AL13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AM13" t="s">
         <v>232</v>
@@ -5553,10 +5558,10 @@
         <v>164</v>
       </c>
       <c r="AU13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AV13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW13" t="s">
         <v>208</v>
@@ -5566,7 +5571,7 @@
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="A14" t="s">
         <v>294</v>
       </c>
       <c r="B14" t="s">
@@ -5651,11 +5656,14 @@
         <v>111</v>
       </c>
       <c r="AH14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s">
         <v>150</v>
       </c>
+      <c r="AL14" t="s">
+        <v>354</v>
+      </c>
       <c r="AM14" t="s">
         <v>232</v>
       </c>
@@ -5666,20 +5674,20 @@
         <v>164</v>
       </c>
       <c r="AU14" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="AV14" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX14" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" t="s">
         <v>294</v>
       </c>
       <c r="B15" t="s">
@@ -5764,53 +5772,35 @@
         <v>111</v>
       </c>
       <c r="AH15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="AK15" t="s">
         <v>150</v>
       </c>
-      <c r="AL15" t="s">
-        <v>331</v>
-      </c>
       <c r="AM15" t="s">
         <v>232</v>
       </c>
-      <c r="AN15" t="s">
-        <v>162</v>
-      </c>
       <c r="AO15" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="AQ15" t="s">
         <v>164</v>
       </c>
-      <c r="AR15" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>181</v>
-      </c>
       <c r="AU15" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="AV15" t="s">
         <v>199</v>
       </c>
       <c r="AW15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX15" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="A16" t="s">
         <v>294</v>
       </c>
       <c r="B16" t="s">
@@ -5913,7 +5903,7 @@
         <v>232</v>
       </c>
       <c r="AN16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO16" t="s">
         <v>360</v>
@@ -5922,10 +5912,10 @@
         <v>164</v>
       </c>
       <c r="AR16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS16" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AU16" t="s">
         <v>358</v>
@@ -5941,7 +5931,7 @@
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" t="s">
         <v>294</v>
       </c>
       <c r="B17" t="s">
@@ -6044,7 +6034,7 @@
         <v>232</v>
       </c>
       <c r="AN17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO17" t="s">
         <v>360</v>
@@ -6053,10 +6043,10 @@
         <v>164</v>
       </c>
       <c r="AR17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AS17" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AU17" t="s">
         <v>358</v>
@@ -6072,7 +6062,7 @@
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" t="s">
         <v>294</v>
       </c>
       <c r="B18" t="s">
@@ -6157,22 +6147,25 @@
         <v>111</v>
       </c>
       <c r="AH18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AI18" t="s">
-        <v>147</v>
+        <v>129</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>155</v>
       </c>
       <c r="AK18" t="s">
         <v>150</v>
       </c>
       <c r="AL18" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AM18" t="s">
         <v>232</v>
       </c>
       <c r="AN18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO18" t="s">
         <v>360</v>
@@ -6184,7 +6177,7 @@
         <v>169</v>
       </c>
       <c r="AS18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AU18" t="s">
         <v>358</v>
@@ -6195,12 +6188,12 @@
       <c r="AW18" t="s">
         <v>208</v>
       </c>
-      <c r="AX18" s="20" t="s">
-        <v>361</v>
+      <c r="AX18" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" t="s">
         <v>294</v>
       </c>
       <c r="B19" t="s">
@@ -6309,10 +6302,10 @@
         <v>164</v>
       </c>
       <c r="AR19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS19" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AU19" t="s">
         <v>358</v>
@@ -6323,12 +6316,12 @@
       <c r="AW19" t="s">
         <v>208</v>
       </c>
-      <c r="AX19" s="20" t="s">
+      <c r="AX19" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" t="s">
         <v>294</v>
       </c>
       <c r="B20" t="s">
@@ -6413,53 +6406,50 @@
         <v>111</v>
       </c>
       <c r="AH20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AI20" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AK20" t="s">
         <v>150</v>
       </c>
       <c r="AL20" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="AM20" t="s">
         <v>232</v>
       </c>
       <c r="AN20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO20" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
       </c>
       <c r="AR20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AS20" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="AU20" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="AV20" t="s">
         <v>199</v>
       </c>
       <c r="AW20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" t="s">
         <v>294</v>
       </c>
       <c r="B21" t="s">
@@ -6544,22 +6534,25 @@
         <v>111</v>
       </c>
       <c r="AH21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AI21" t="s">
-        <v>147</v>
+        <v>129</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>155</v>
       </c>
       <c r="AK21" t="s">
         <v>150</v>
       </c>
       <c r="AL21" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AM21" t="s">
         <v>232</v>
       </c>
       <c r="AN21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO21" t="s">
         <v>357</v>
@@ -6587,7 +6580,7 @@
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+      <c r="A22" t="s">
         <v>294</v>
       </c>
       <c r="B22" t="s">
@@ -6672,28 +6665,25 @@
         <v>111</v>
       </c>
       <c r="AH22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AI22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AK22" t="s">
         <v>150</v>
       </c>
       <c r="AL22" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="AM22" t="s">
         <v>232</v>
       </c>
       <c r="AN22" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO22" s="20" t="s">
-        <v>364</v>
+        <v>160</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>357</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
@@ -6714,11 +6704,11 @@
         <v>207</v>
       </c>
       <c r="AX22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+      <c r="A23" t="s">
         <v>294</v>
       </c>
       <c r="B23" t="s">
@@ -6821,16 +6811,19 @@
         <v>232</v>
       </c>
       <c r="AN23" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO23" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO23" t="s">
         <v>364</v>
       </c>
       <c r="AQ23" t="s">
         <v>164</v>
       </c>
       <c r="AR23" t="s">
-        <v>239</v>
+        <v>169</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>181</v>
       </c>
       <c r="AU23" t="s">
         <v>343</v>
@@ -6846,7 +6839,7 @@
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+      <c r="A24" t="s">
         <v>294</v>
       </c>
       <c r="B24" t="s">
@@ -6949,19 +6942,16 @@
         <v>232</v>
       </c>
       <c r="AN24" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO24" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO24" t="s">
         <v>364</v>
       </c>
       <c r="AQ24" t="s">
         <v>164</v>
       </c>
       <c r="AR24" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="AU24" t="s">
         <v>343</v>
@@ -6977,7 +6967,7 @@
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
+      <c r="A25" t="s">
         <v>294</v>
       </c>
       <c r="B25" t="s">
@@ -7080,14 +7070,20 @@
         <v>232</v>
       </c>
       <c r="AN25" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO25" s="20" t="s">
-        <v>365</v>
+        <v>161</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>364</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
       </c>
+      <c r="AR25" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>185</v>
+      </c>
       <c r="AU25" t="s">
         <v>343</v>
       </c>
@@ -7097,12 +7093,12 @@
       <c r="AW25" t="s">
         <v>207</v>
       </c>
-      <c r="AX25" s="20" t="s">
-        <v>366</v>
+      <c r="AX25" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
+      <c r="A26" t="s">
         <v>294</v>
       </c>
       <c r="B26" t="s">
@@ -7187,35 +7183,32 @@
         <v>111</v>
       </c>
       <c r="AH26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AI26" t="s">
-        <v>147</v>
+        <v>129</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>155</v>
       </c>
       <c r="AK26" t="s">
         <v>150</v>
       </c>
       <c r="AL26" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AM26" t="s">
         <v>232</v>
       </c>
       <c r="AN26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO26" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
       </c>
-      <c r="AR26" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>181</v>
-      </c>
       <c r="AU26" t="s">
         <v>343</v>
       </c>
@@ -7226,11 +7219,11 @@
         <v>207</v>
       </c>
       <c r="AX26" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
+      <c r="A27" t="s">
         <v>294</v>
       </c>
       <c r="B27" t="s">
@@ -7332,8 +7325,8 @@
       <c r="AN27" t="s">
         <v>160</v>
       </c>
-      <c r="AO27" s="20" t="s">
-        <v>364</v>
+      <c r="AO27" t="s">
+        <v>357</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
@@ -7354,11 +7347,11 @@
         <v>207</v>
       </c>
       <c r="AX27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
+      <c r="A28" t="s">
         <v>294</v>
       </c>
       <c r="B28" t="s">
@@ -7460,14 +7453,17 @@
       <c r="AN28" t="s">
         <v>160</v>
       </c>
-      <c r="AO28" s="20" t="s">
+      <c r="AO28" t="s">
         <v>364</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
       </c>
       <c r="AR28" t="s">
-        <v>239</v>
+        <v>169</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>181</v>
       </c>
       <c r="AU28" t="s">
         <v>343</v>
@@ -7483,7 +7479,7 @@
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
+      <c r="A29" t="s">
         <v>294</v>
       </c>
       <c r="B29" t="s">
@@ -7585,17 +7581,14 @@
       <c r="AN29" t="s">
         <v>160</v>
       </c>
-      <c r="AO29" s="20" t="s">
+      <c r="AO29" t="s">
         <v>364</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
       </c>
       <c r="AR29" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="AU29" t="s">
         <v>343</v>
@@ -7611,7 +7604,7 @@
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
+      <c r="A30" t="s">
         <v>294</v>
       </c>
       <c r="B30" t="s">
@@ -7713,12 +7706,18 @@
       <c r="AN30" t="s">
         <v>160</v>
       </c>
-      <c r="AO30" s="20" t="s">
-        <v>365</v>
+      <c r="AO30" t="s">
+        <v>364</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
       </c>
+      <c r="AR30" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>185</v>
+      </c>
       <c r="AU30" t="s">
         <v>343</v>
       </c>
@@ -7728,46 +7727,46 @@
       <c r="AW30" t="s">
         <v>207</v>
       </c>
-      <c r="AX30" s="20" t="s">
-        <v>366</v>
+      <c r="AX30" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
-        <v>288</v>
+      <c r="A31" t="s">
+        <v>294</v>
       </c>
       <c r="B31" t="s">
         <v>244</v>
       </c>
       <c r="C31" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D31" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E31">
         <v>2011</v>
       </c>
       <c r="F31" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G31">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I31">
-        <v>299</v>
+        <v>2490</v>
       </c>
       <c r="J31">
-        <v>316</v>
+        <v>2498</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M31" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="N31" t="s">
         <v>243</v>
@@ -7794,10 +7793,13 @@
         <v>55</v>
       </c>
       <c r="X31" t="s">
-        <v>69</v>
+        <v>216</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>330</v>
       </c>
       <c r="Z31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -7808,57 +7810,51 @@
       <c r="AC31">
         <v>2</v>
       </c>
-      <c r="AF31">
-        <v>4.2</v>
+      <c r="AF31" t="s">
+        <v>307</v>
       </c>
       <c r="AG31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AI31" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="AK31" t="s">
         <v>150</v>
       </c>
       <c r="AL31" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AM31" t="s">
         <v>232</v>
       </c>
       <c r="AN31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO31" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
       </c>
-      <c r="AR31" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>192</v>
-      </c>
       <c r="AU31" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AV31" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW31" t="s">
         <v>207</v>
       </c>
       <c r="AX31" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
+      <c r="A32" t="s">
         <v>288</v>
       </c>
       <c r="B32" t="s">
@@ -7964,10 +7960,10 @@
         <v>164</v>
       </c>
       <c r="AR32" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="AS32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AU32" t="s">
         <v>347</v>
@@ -7983,7 +7979,7 @@
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
+      <c r="A33" t="s">
         <v>288</v>
       </c>
       <c r="B33" t="s">
@@ -8089,7 +8085,10 @@
         <v>164</v>
       </c>
       <c r="AR33" t="s">
-        <v>239</v>
+        <v>170</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>190</v>
       </c>
       <c r="AU33" t="s">
         <v>347</v>
@@ -8105,38 +8104,41 @@
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
-        <v>282</v>
+      <c r="A34" t="s">
+        <v>288</v>
       </c>
       <c r="B34" t="s">
         <v>244</v>
       </c>
       <c r="C34" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D34" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E34">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F34" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G34">
-        <v>414</v>
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>299</v>
       </c>
       <c r="J34">
-        <v>9</v>
+        <v>316</v>
       </c>
       <c r="K34" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M34" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="N34" t="s">
         <v>243</v>
@@ -8144,14 +8146,11 @@
       <c r="O34" t="s">
         <v>242</v>
       </c>
-      <c r="P34" t="s">
-        <v>245</v>
-      </c>
       <c r="Q34" t="s">
         <v>21</v>
       </c>
       <c r="S34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T34" t="s">
         <v>46</v>
@@ -8166,49 +8165,46 @@
         <v>55</v>
       </c>
       <c r="X34" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AA34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB34">
+        <v>1</v>
+      </c>
+      <c r="AC34">
         <v>2</v>
       </c>
-      <c r="AC34">
-        <v>3</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>334</v>
-      </c>
       <c r="AF34">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="AG34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AI34" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AK34" t="s">
         <v>150</v>
       </c>
       <c r="AL34" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="AM34" t="s">
         <v>232</v>
       </c>
       <c r="AN34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO34" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
@@ -8216,24 +8212,21 @@
       <c r="AR34" t="s">
         <v>239</v>
       </c>
-      <c r="AS34" t="s">
-        <v>175</v>
-      </c>
       <c r="AU34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AV34" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="AW34" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX34" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
+      <c r="A35" t="s">
         <v>282</v>
       </c>
       <c r="B35" t="s">
@@ -8279,7 +8272,7 @@
         <v>21</v>
       </c>
       <c r="S35" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="T35" t="s">
         <v>46</v>
@@ -8336,7 +8329,7 @@
         <v>160</v>
       </c>
       <c r="AO35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
@@ -8361,7 +8354,7 @@
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="s">
+      <c r="A36" t="s">
         <v>282</v>
       </c>
       <c r="B36" t="s">
@@ -8407,7 +8400,7 @@
         <v>21</v>
       </c>
       <c r="S36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T36" t="s">
         <v>46</v>
@@ -8464,7 +8457,7 @@
         <v>160</v>
       </c>
       <c r="AO36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
@@ -8489,41 +8482,38 @@
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
-        <v>276</v>
+      <c r="A37" t="s">
+        <v>282</v>
       </c>
       <c r="B37" t="s">
         <v>244</v>
       </c>
       <c r="C37" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D37" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E37">
         <v>2010</v>
       </c>
       <c r="F37" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G37">
-        <v>6</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
+        <v>414</v>
       </c>
       <c r="I37">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>264</v>
+        <v>9</v>
       </c>
       <c r="K37" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M37" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="N37" t="s">
         <v>243</v>
@@ -8532,54 +8522,129 @@
         <v>242</v>
       </c>
       <c r="P37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q37" t="s">
         <v>21</v>
       </c>
-      <c r="R37" t="s">
-        <v>84</v>
+      <c r="S37" t="s">
+        <v>29</v>
+      </c>
+      <c r="T37" t="s">
+        <v>46</v>
+      </c>
+      <c r="U37" t="s">
+        <v>58</v>
+      </c>
+      <c r="V37" t="s">
+        <v>46</v>
+      </c>
+      <c r="W37" t="s">
+        <v>55</v>
+      </c>
+      <c r="X37" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA37">
+        <v>3</v>
+      </c>
+      <c r="AB37">
+        <v>2</v>
+      </c>
+      <c r="AC37">
+        <v>3</v>
       </c>
       <c r="AE37" t="s">
-        <v>335</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>306</v>
+        <v>334</v>
+      </c>
+      <c r="AF37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>338</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>348</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
-        <v>270</v>
+      <c r="A38" t="s">
+        <v>276</v>
       </c>
       <c r="B38" t="s">
         <v>244</v>
       </c>
       <c r="C38" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D38" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E38">
         <v>2010</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G38">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>25</v>
+        <v>261</v>
       </c>
       <c r="J38">
-        <v>30</v>
+        <v>264</v>
+      </c>
+      <c r="K38" t="s">
+        <v>272</v>
       </c>
       <c r="M38" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="N38" t="s">
         <v>243</v>
@@ -8587,6 +8652,9 @@
       <c r="O38" t="s">
         <v>242</v>
       </c>
+      <c r="P38" t="s">
+        <v>247</v>
+      </c>
       <c r="Q38" t="s">
         <v>21</v>
       </c>
@@ -8594,48 +8662,45 @@
         <v>84</v>
       </c>
       <c r="AE38" t="s">
-        <v>349</v>
-      </c>
-      <c r="AF38">
-        <v>4.2</v>
+        <v>335</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
-        <v>265</v>
+      <c r="A39" t="s">
+        <v>270</v>
       </c>
       <c r="B39" t="s">
         <v>244</v>
       </c>
       <c r="C39" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D39" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E39">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F39" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G39">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>472</v>
+        <v>25</v>
       </c>
       <c r="J39">
-        <v>478</v>
-      </c>
-      <c r="K39" t="s">
-        <v>261</v>
+        <v>30</v>
       </c>
       <c r="M39" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="N39" t="s">
         <v>243</v>
@@ -8646,90 +8711,18 @@
       <c r="Q39" t="s">
         <v>21</v>
       </c>
-      <c r="S39" t="s">
-        <v>31</v>
-      </c>
-      <c r="T39" t="s">
-        <v>46</v>
-      </c>
-      <c r="V39" t="s">
-        <v>42</v>
-      </c>
-      <c r="W39" t="s">
-        <v>214</v>
-      </c>
-      <c r="X39" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA39">
-        <v>2</v>
-      </c>
-      <c r="AB39">
-        <v>2</v>
-      </c>
-      <c r="AC39">
-        <v>2</v>
+      <c r="R39" t="s">
+        <v>84</v>
       </c>
       <c r="AE39" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="AF39">
-        <v>4.3</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>317</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO39" t="s">
-        <v>319</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>320</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU39" t="s">
-        <v>316</v>
-      </c>
-      <c r="AV39" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX39" t="s">
-        <v>318</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
+      <c r="A40" t="s">
         <v>265</v>
       </c>
       <c r="B40" t="s">
@@ -8820,7 +8813,7 @@
         <v>140</v>
       </c>
       <c r="AJ40" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="AK40" t="s">
         <v>134</v>
@@ -8857,41 +8850,41 @@
       </c>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
-        <v>259</v>
+      <c r="A41" t="s">
+        <v>265</v>
       </c>
       <c r="B41" t="s">
         <v>244</v>
       </c>
       <c r="C41" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D41" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E41">
         <v>2009</v>
       </c>
       <c r="F41" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G41">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>392</v>
+        <v>472</v>
       </c>
       <c r="J41">
-        <v>401</v>
+        <v>478</v>
       </c>
       <c r="K41" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M41" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="N41" t="s">
         <v>243</v>
@@ -8903,28 +8896,25 @@
         <v>21</v>
       </c>
       <c r="S41" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T41" t="s">
         <v>46</v>
       </c>
-      <c r="U41" t="s">
-        <v>58</v>
-      </c>
       <c r="V41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W41" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="X41" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="Y41" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Z41" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="AA41">
         <v>2</v>
@@ -8933,59 +8923,62 @@
         <v>2</v>
       </c>
       <c r="AC41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE41" t="s">
-        <v>311</v>
-      </c>
-      <c r="AF41" s="12">
-        <v>4.5</v>
+        <v>321</v>
+      </c>
+      <c r="AF41">
+        <v>4.3</v>
       </c>
       <c r="AG41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH41" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AI41" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AJ41" t="s">
-        <v>155</v>
+        <v>113</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>134</v>
       </c>
       <c r="AL41" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AM41" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AO41" t="s">
-        <v>312</v>
+        <v>319</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>320</v>
       </c>
       <c r="AQ41" t="s">
         <v>164</v>
       </c>
       <c r="AR41" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS41" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="AU41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AV41" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX41" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
+      <c r="A42" t="s">
         <v>259</v>
       </c>
       <c r="B42" t="s">
@@ -9066,7 +9059,7 @@
       <c r="AE42" t="s">
         <v>311</v>
       </c>
-      <c r="AF42" s="12">
+      <c r="AF42" s="10">
         <v>4.5</v>
       </c>
       <c r="AG42" t="s">
@@ -9091,7 +9084,7 @@
         <v>312</v>
       </c>
       <c r="AQ42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AR42" t="s">
         <v>170</v>
@@ -9113,41 +9106,41 @@
       </c>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
-        <v>253</v>
+      <c r="A43" t="s">
+        <v>259</v>
       </c>
       <c r="B43" t="s">
         <v>244</v>
       </c>
       <c r="C43" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D43" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E43">
         <v>2009</v>
       </c>
       <c r="F43" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G43">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>41</v>
+        <v>392</v>
       </c>
       <c r="J43">
-        <v>49</v>
+        <v>401</v>
       </c>
       <c r="K43" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M43" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N43" t="s">
         <v>243</v>
@@ -9158,10 +9151,138 @@
       <c r="Q43" t="s">
         <v>21</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
+        <v>26</v>
+      </c>
+      <c r="T43" t="s">
+        <v>46</v>
+      </c>
+      <c r="U43" t="s">
+        <v>58</v>
+      </c>
+      <c r="V43" t="s">
+        <v>46</v>
+      </c>
+      <c r="W43" t="s">
+        <v>58</v>
+      </c>
+      <c r="X43" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA43">
+        <v>2</v>
+      </c>
+      <c r="AB43">
+        <v>2</v>
+      </c>
+      <c r="AC43">
+        <v>3</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF43" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>231</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>313</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44">
+        <v>2009</v>
+      </c>
+      <c r="F44" t="s">
+        <v>250</v>
+      </c>
+      <c r="G44">
+        <v>82</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>41</v>
+      </c>
+      <c r="J44">
+        <v>49</v>
+      </c>
+      <c r="K44" t="s">
+        <v>249</v>
+      </c>
+      <c r="M44" t="s">
+        <v>248</v>
+      </c>
+      <c r="N44" t="s">
+        <v>243</v>
+      </c>
+      <c r="O44" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" t="s">
         <v>84</v>
       </c>
-      <c r="AF43">
+      <c r="AF44">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -9176,14 +9297,14 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P37:P1048576 Q3:Q36" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P38:P1048576 Q3:Q37" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN1048576 AI3:AJ1048576 AR3:AS1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AI3:AJ1048576 AN3:AN1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -9197,25 +9318,25 @@
           <x14:formula1>
             <xm:f>Validation!$AA$3:$AA$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AA48:AA1048576 AA3:AA46</xm:sqref>
+          <xm:sqref>AA49:AA1048576 AA3:AA47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Validation!$AB$3:$AB$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AB48:AB1048576 AB3:AB46</xm:sqref>
+          <xm:sqref>AB49:AB1048576 AB3:AB47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>Validation!$AC$3:$AC$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AC48:AC1048576 AC3:AC46</xm:sqref>
+          <xm:sqref>AC49:AC1048576 AC3:AC47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>'C:\Users\kjova\Downloads\[DataExtractionForm_WP4_Dinesen.xlsx]Validation'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>AF43 AF3:AF6</xm:sqref>
+          <xm:sqref>AF44 AF3:AF6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
@@ -9297,7 +9418,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY38"/>
+  <dimension ref="A1:AX38"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
@@ -9314,70 +9435,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="18" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="16" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="17" t="s">
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="10" t="s">
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="13" t="s">
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="9" t="s">
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
     </row>
     <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -9699,7 +9820,7 @@
       <c r="AW5" t="s">
         <v>210</v>
       </c>
-      <c r="AX5" s="8"/>
+      <c r="AX5" s="7"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
@@ -10087,7 +10208,7 @@
       </c>
     </row>
     <row r="19" spans="34:48" x14ac:dyDescent="0.35">
-      <c r="AQ19" s="7" t="s">
+      <c r="AQ19" t="s">
         <v>113</v>
       </c>
     </row>
@@ -10290,7 +10411,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -10310,7 +10431,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -10323,9 +10444,8 @@
       <c r="AV34" t="s">
         <v>194</v>
       </c>
-      <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -10339,7 +10459,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -10347,10 +10467,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -10410,51 +10530,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="17" t="s">
+      <c r="P1" s="14"/>
+      <c r="Q1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="10" t="s">
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="13" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="14" t="s">
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
     </row>
     <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -10977,7 +11097,7 @@
       <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" t="s">
         <v>221</v>
       </c>
       <c r="R12" t="s">
@@ -11298,6 +11418,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -11411,22 +11546,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5119AE1-18E6-4AE7-B94D-A5692B077F3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11440,21 +11583,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>